--- a/data/trans_orig/IP07C19-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C19-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FDAED1B-A2B4-4A73-A743-044956C2676D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3DAFDF2-39E2-410F-8E28-D1165BC2EA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AB21D00B-89E6-4300-9D90-44A524F1DBEA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D36B67E3-9FF2-4905-A02D-3363844E5334}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="623">
   <si>
     <t>Menores según frecuencia de burlarse de él otros chicos en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
@@ -77,1702 +77,1747 @@
     <t>4,0%</t>
   </si>
   <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>11,02%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de burlarse de él otros chicos en 2012 (Tasa respuesta: 43,59%)</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de burlarse de él otros chicos en 2016 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
   </si>
   <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de burlarse de él otros chicos en 2023 (Tasa respuesta: 29,95%)</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
   </si>
   <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de burlarse de él otros chicos en 2012 (Tasa respuesta: 43,59%)</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de burlarse de él otros chicos en 2015 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de burlarse de él otros chicos en 2023 (Tasa respuesta: 29,95%)</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
     <t>0,38%</t>
   </si>
   <si>
+    <t>3,62%</t>
+  </si>
+  <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>0,34%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
   </si>
   <si>
     <t>1,36%</t>
@@ -1784,85 +1829,85 @@
     <t>1,04%</t>
   </si>
   <si>
-    <t>5,14%</t>
+    <t>4,99%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>1,0%</t>
+    <t>3,15%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
   </si>
   <si>
     <t>9,03%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
   </si>
   <si>
     <t>8,08%</t>
   </si>
   <si>
-    <t>11,6%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
   </si>
   <si>
     <t>87,69%</t>
   </si>
   <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
   </si>
   <si>
     <t>87,73%</t>
   </si>
   <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
   </si>
   <si>
     <t>87,7%</t>
   </si>
   <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
   </si>
 </sst>
 </file>
@@ -2274,7 +2319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D462646-04F3-4116-ACFB-FA849E1D7C67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA68926-D53A-439E-B7D7-DF8D5B9B11EB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2757,13 +2802,13 @@
         <v>3966</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -2889,13 +2934,13 @@
         <v>41307</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,13 +2955,13 @@
         <v>173077</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H14" s="7">
         <v>215</v>
@@ -2925,13 +2970,13 @@
         <v>144735</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>474</v>
@@ -2940,13 +2985,13 @@
         <v>317812</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2988,7 +3033,7 @@
         <v>613</v>
       </c>
       <c r="N15" s="7">
-        <v>407699</v>
+        <v>407700</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>56</v>
@@ -3002,7 +3047,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3014,13 +3059,13 @@
         <v>644</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3029,13 +3074,13 @@
         <v>1513</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3044,13 +3089,13 @@
         <v>2157</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,13 +3110,13 @@
         <v>1323</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3080,13 +3125,13 @@
         <v>1328</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -3095,13 +3140,13 @@
         <v>2651</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,13 +3161,13 @@
         <v>3214</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -3131,13 +3176,13 @@
         <v>5181</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -3146,13 +3191,13 @@
         <v>8395</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,13 +3212,13 @@
         <v>8434</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -3182,13 +3227,13 @@
         <v>6186</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -3197,13 +3242,13 @@
         <v>14621</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3263,13 @@
         <v>35425</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>57</v>
@@ -3233,13 +3278,13 @@
         <v>40038</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>110</v>
@@ -3248,13 +3293,13 @@
         <v>75464</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3367,13 @@
         <v>7426</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -3337,13 +3382,13 @@
         <v>6487</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -3355,10 +3400,10 @@
         <v>58</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,13 +3418,13 @@
         <v>5290</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
@@ -3388,13 +3433,13 @@
         <v>9068</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M23" s="7">
         <v>22</v>
@@ -3403,13 +3448,13 @@
         <v>14357</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,13 +3469,13 @@
         <v>20091</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>37</v>
@@ -3439,13 +3484,13 @@
         <v>24570</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>68</v>
@@ -3454,13 +3499,13 @@
         <v>44661</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3520,13 @@
         <v>35703</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>50</v>
@@ -3490,13 +3535,13 @@
         <v>33278</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>104</v>
@@ -3505,13 +3550,13 @@
         <v>68981</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,13 +3571,13 @@
         <v>241068</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>320</v>
@@ -3541,13 +3586,13 @@
         <v>216589</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>681</v>
@@ -3556,13 +3601,13 @@
         <v>457658</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,7 +3663,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3637,7 +3682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F58D7F-54E8-4EA2-B66C-481780641F12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A1A11F-01C9-4383-B618-4F571881A92E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3654,7 +3699,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3764,10 +3809,10 @@
         <v>33</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3779,10 +3824,10 @@
         <v>27</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -3791,13 +3836,13 @@
         <v>8836</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +3857,13 @@
         <v>857</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3827,13 +3872,13 @@
         <v>1222</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3842,13 +3887,13 @@
         <v>2079</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +3908,13 @@
         <v>3817</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -3878,13 +3923,13 @@
         <v>7312</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -3893,13 +3938,13 @@
         <v>11128</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,13 +3959,13 @@
         <v>8390</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3929,13 +3974,13 @@
         <v>4131</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -3944,13 +3989,13 @@
         <v>12521</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,13 +4010,13 @@
         <v>28233</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H8" s="7">
         <v>48</v>
@@ -3980,13 +4025,13 @@
         <v>33990</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M8" s="7">
         <v>88</v>
@@ -3995,13 +4040,13 @@
         <v>62223</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,13 +4114,13 @@
         <v>8643</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -4084,13 +4129,13 @@
         <v>10425</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -4099,13 +4144,13 @@
         <v>19068</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>228</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,13 +4165,13 @@
         <v>17934</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H11" s="7">
         <v>36</v>
@@ -4135,13 +4180,13 @@
         <v>25049</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M11" s="7">
         <v>63</v>
@@ -4150,13 +4195,13 @@
         <v>42983</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4216,13 @@
         <v>23447</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H12" s="7">
         <v>27</v>
@@ -4186,13 +4231,13 @@
         <v>19160</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M12" s="7">
         <v>60</v>
@@ -4201,13 +4246,13 @@
         <v>42608</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,13 +4267,13 @@
         <v>25549</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -4237,13 +4282,13 @@
         <v>24345</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
@@ -4252,13 +4297,13 @@
         <v>49895</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,13 +4318,13 @@
         <v>147931</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H14" s="7">
         <v>172</v>
@@ -4288,13 +4333,13 @@
         <v>120768</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
         <v>388</v>
@@ -4303,13 +4348,13 @@
         <v>268699</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,7 +4410,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4377,13 +4422,13 @@
         <v>1237</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4392,7 +4437,7 @@
         <v>3052</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>265</v>
+        <v>82</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>266</v>
@@ -4413,7 +4458,7 @@
         <v>269</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,13 +4473,13 @@
         <v>5331</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -4443,7 +4488,7 @@
         <v>2770</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>273</v>
+        <v>34</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>274</v>
@@ -4497,10 +4542,10 @@
         <v>282</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M18" s="7">
         <v>17</v>
@@ -4509,13 +4554,13 @@
         <v>11867</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,13 +4575,13 @@
         <v>10309</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -4545,13 +4590,13 @@
         <v>8280</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
@@ -4560,13 +4605,13 @@
         <v>18589</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,13 +4626,13 @@
         <v>33169</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H20" s="7">
         <v>57</v>
@@ -4596,13 +4641,13 @@
         <v>39989</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M20" s="7">
         <v>105</v>
@@ -4611,13 +4656,13 @@
         <v>73159</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,13 +4730,13 @@
         <v>13745</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>306</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>88</v>
+        <v>308</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -4700,13 +4745,13 @@
         <v>18448</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M22" s="7">
         <v>46</v>
@@ -4715,13 +4760,13 @@
         <v>32193</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,13 +4781,13 @@
         <v>24122</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H23" s="7">
         <v>42</v>
@@ -4751,13 +4796,13 @@
         <v>29041</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>312</v>
+        <v>88</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M23" s="7">
         <v>78</v>
@@ -4766,13 +4811,13 @@
         <v>53163</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>241</v>
+        <v>318</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4787,13 +4832,13 @@
         <v>32421</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -4802,13 +4847,13 @@
         <v>33182</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="M24" s="7">
         <v>93</v>
@@ -4817,13 +4862,13 @@
         <v>65603</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,13 +4883,13 @@
         <v>44248</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -4853,13 +4898,13 @@
         <v>36757</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>279</v>
+        <v>332</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="M25" s="7">
         <v>117</v>
@@ -4868,13 +4913,13 @@
         <v>81005</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,13 +4934,13 @@
         <v>209333</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H26" s="7">
         <v>277</v>
@@ -4904,13 +4949,13 @@
         <v>194747</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="M26" s="7">
         <v>581</v>
@@ -4919,13 +4964,13 @@
         <v>404079</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4981,7 +5026,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -5000,7 +5045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC03884-1CDE-4CAB-938E-68C5A93B9E9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E86FBB-DE47-4C55-92DE-4AE52A804C5A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5017,7 +5062,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5124,13 +5169,13 @@
         <v>727</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5139,13 +5184,13 @@
         <v>792</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5154,13 +5199,13 @@
         <v>1518</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5220,13 @@
         <v>5528</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>349</v>
+        <v>85</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -5190,13 +5235,13 @@
         <v>1421</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -5205,13 +5250,13 @@
         <v>6949</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5271,13 @@
         <v>2059</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -5241,13 +5286,13 @@
         <v>2797</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>70</v>
+        <v>364</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -5256,13 +5301,13 @@
         <v>4856</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>224</v>
+        <v>367</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>362</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,13 +5322,13 @@
         <v>3909</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -5292,13 +5337,13 @@
         <v>3252</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -5307,13 +5352,13 @@
         <v>7161</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,13 +5373,13 @@
         <v>24415</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -5343,13 +5388,13 @@
         <v>22345</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="M8" s="7">
         <v>67</v>
@@ -5358,13 +5403,13 @@
         <v>46760</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,13 +5477,13 @@
         <v>7732</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>381</v>
+        <v>66</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -5447,13 +5492,13 @@
         <v>9231</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>193</v>
+        <v>388</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5462,13 +5507,13 @@
         <v>16963</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>387</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>388</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,13 +5528,13 @@
         <v>14658</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -5498,13 +5543,13 @@
         <v>12509</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>394</v>
+        <v>323</v>
       </c>
       <c r="M11" s="7">
         <v>37</v>
@@ -5513,13 +5558,13 @@
         <v>27167</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,13 +5579,13 @@
         <v>21597</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>398</v>
+        <v>161</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>399</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>313</v>
+        <v>400</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -5549,7 +5594,7 @@
         <v>9622</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>401</v>
@@ -5564,13 +5609,13 @@
         <v>31219</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>38</v>
+        <v>403</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,13 +5630,13 @@
         <v>49929</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -5600,13 +5645,13 @@
         <v>47436</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M13" s="7">
         <v>134</v>
@@ -5615,13 +5660,13 @@
         <v>97365</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5636,13 +5681,13 @@
         <v>143147</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H14" s="7">
         <v>238</v>
@@ -5651,13 +5696,13 @@
         <v>165198</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M14" s="7">
         <v>434</v>
@@ -5666,13 +5711,13 @@
         <v>308346</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5728,7 +5773,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5740,13 +5785,13 @@
         <v>2615</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>424</v>
+        <v>314</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5761,7 +5806,7 @@
         <v>426</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>427</v>
+        <v>352</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5770,13 +5815,13 @@
         <v>4639</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>147</v>
+        <v>210</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,10 +5839,10 @@
         <v>429</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>67</v>
+        <v>430</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>237</v>
+        <v>431</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -5806,13 +5851,13 @@
         <v>5551</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>431</v>
+        <v>76</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -5821,13 +5866,13 @@
         <v>9383</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>384</v>
+        <v>158</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,13 +5887,13 @@
         <v>4182</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -5857,13 +5902,13 @@
         <v>6863</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
@@ -5875,10 +5920,10 @@
         <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5893,13 +5938,13 @@
         <v>12547</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -5908,13 +5953,13 @@
         <v>16624</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -5923,13 +5968,13 @@
         <v>29170</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,13 +5989,13 @@
         <v>52325</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H20" s="7">
         <v>56</v>
@@ -5959,13 +6004,13 @@
         <v>40029</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M20" s="7">
         <v>129</v>
@@ -5974,13 +6019,13 @@
         <v>92354</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6048,13 +6093,13 @@
         <v>11074</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -6063,13 +6108,13 @@
         <v>12047</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>105</v>
+        <v>466</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="M22" s="7">
         <v>32</v>
@@ -6078,13 +6123,13 @@
         <v>23121</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>66</v>
+        <v>468</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>466</v>
+        <v>371</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>467</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6099,13 +6144,13 @@
         <v>24018</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H23" s="7">
         <v>27</v>
@@ -6114,13 +6159,13 @@
         <v>19481</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M23" s="7">
         <v>61</v>
@@ -6129,13 +6174,13 @@
         <v>43500</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>285</v>
+        <v>475</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>229</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6150,13 +6195,13 @@
         <v>27838</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -6165,13 +6210,13 @@
         <v>19282</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="M24" s="7">
         <v>66</v>
@@ -6180,13 +6225,13 @@
         <v>47120</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>481</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6201,13 +6246,13 @@
         <v>66384</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="H25" s="7">
         <v>95</v>
@@ -6216,13 +6261,13 @@
         <v>67312</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="M25" s="7">
         <v>184</v>
@@ -6231,13 +6276,13 @@
         <v>133696</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6252,13 +6297,13 @@
         <v>219888</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="H26" s="7">
         <v>327</v>
@@ -6267,13 +6312,13 @@
         <v>227572</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>415</v>
+        <v>497</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="M26" s="7">
         <v>630</v>
@@ -6282,13 +6327,13 @@
         <v>447460</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,7 +6389,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -6363,7 +6408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBEBF80C-25EB-4580-BE1D-00EE8F9F3292}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF2AA5F-8268-4F8C-82B5-68CA6B29C5E6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6380,7 +6425,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6493,7 +6538,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>403</v>
+        <v>504</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6508,7 +6553,7 @@
         <v>22</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>204</v>
+        <v>505</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6523,7 +6568,7 @@
         <v>22</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,7 +6589,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>403</v>
+        <v>504</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6559,7 +6604,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>204</v>
+        <v>505</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6574,7 +6619,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,13 +6634,13 @@
         <v>586</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6610,7 +6655,7 @@
         <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>204</v>
+        <v>505</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -6619,13 +6664,13 @@
         <v>586</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>444</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6640,13 +6685,13 @@
         <v>2916</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>411</v>
+        <v>509</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6661,7 +6706,7 @@
         <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>204</v>
+        <v>505</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -6670,13 +6715,13 @@
         <v>2916</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>511</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6691,13 +6736,13 @@
         <v>13416</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -6706,10 +6751,10 @@
         <v>13910</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>56</v>
@@ -6721,13 +6766,13 @@
         <v>27325</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6795,13 +6840,13 @@
         <v>1391</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -6810,13 +6855,13 @@
         <v>2945</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -6825,13 +6870,13 @@
         <v>4336</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>428</v>
+        <v>526</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>31</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,13 +6891,13 @@
         <v>2994</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>520</v>
+        <v>63</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -6861,13 +6906,13 @@
         <v>5194</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>521</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>530</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -6876,13 +6921,13 @@
         <v>8188</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6897,13 +6942,13 @@
         <v>1066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -6912,13 +6957,13 @@
         <v>2187</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -6927,13 +6972,13 @@
         <v>3253</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6948,13 +6993,13 @@
         <v>16452</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>248</v>
+        <v>545</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -6963,13 +7008,13 @@
         <v>11401</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>347</v>
+        <v>546</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>273</v>
+        <v>547</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -6978,13 +7023,13 @@
         <v>27852</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>537</v>
+        <v>474</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6999,13 +7044,13 @@
         <v>174021</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="H14" s="7">
         <v>164</v>
@@ -7014,13 +7059,13 @@
         <v>126361</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="M14" s="7">
         <v>355</v>
@@ -7029,13 +7074,13 @@
         <v>300382</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7091,7 +7136,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7109,7 +7154,7 @@
         <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7124,7 +7169,7 @@
         <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>527</v>
+        <v>561</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7139,7 +7184,7 @@
         <v>22</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7154,13 +7199,13 @@
         <v>621</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>551</v>
+        <v>274</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>552</v>
+        <v>318</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -7175,7 +7220,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>527</v>
+        <v>561</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -7184,13 +7229,13 @@
         <v>621</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>113</v>
+        <v>563</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7205,13 +7250,13 @@
         <v>2086</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>554</v>
+        <v>392</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -7220,13 +7265,13 @@
         <v>681</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>556</v>
+        <v>385</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>557</v>
+        <v>196</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -7235,13 +7280,13 @@
         <v>2767</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>393</v>
+        <v>566</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>568</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7256,13 +7301,13 @@
         <v>4645</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -7271,13 +7316,13 @@
         <v>2453</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>385</v>
+        <v>225</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -7286,13 +7331,13 @@
         <v>7098</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>290</v>
+        <v>576</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7307,13 +7352,13 @@
         <v>45808</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -7322,13 +7367,13 @@
         <v>37414</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="M20" s="7">
         <v>112</v>
@@ -7337,13 +7382,13 @@
         <v>83222</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7411,13 +7456,13 @@
         <v>1391</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>515</v>
+        <v>586</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>387</v>
+        <v>64</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -7426,13 +7471,13 @@
         <v>2945</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>587</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>521</v>
+        <v>589</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -7441,13 +7486,13 @@
         <v>4336</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>562</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7462,13 +7507,13 @@
         <v>3615</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -7477,13 +7522,13 @@
         <v>5194</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -7492,13 +7537,13 @@
         <v>8809</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>527</v>
+        <v>598</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7513,13 +7558,13 @@
         <v>3738</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7528,13 +7573,13 @@
         <v>2868</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -7543,13 +7588,13 @@
         <v>6605</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>558</v>
+        <v>521</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7564,13 +7609,13 @@
         <v>24013</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -7579,13 +7624,13 @@
         <v>13854</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="M25" s="7">
         <v>43</v>
@@ -7594,13 +7639,13 @@
         <v>37867</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>75</v>
+        <v>612</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7615,13 +7660,13 @@
         <v>233245</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="H26" s="7">
         <v>234</v>
@@ -7630,13 +7675,13 @@
         <v>177685</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="M26" s="7">
         <v>503</v>
@@ -7645,13 +7690,13 @@
         <v>410929</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7707,7 +7752,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
